--- a/medicine/Psychotrope/Auchentoshan/Auchentoshan.xlsx
+++ b/medicine/Psychotrope/Auchentoshan/Auchentoshan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Auchentoshan est une distillerie de whisky des Lowlands située à Dalmuir dans le Dunbartonshire en Écosse.
@@ -515,12 +527,49 @@
           <t>Les whiskies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La majeure partie de la production d’Auchentoshan est vendue à des embouteilleurs d’assemblages. La distillerie commercialise aussi son propre blend : le Rob Roy.
 Le single malt d’Auchentoshan est marqué par de très fortes notes florales dont l’origine est directement liée à l’usage de levures lors de la fermentation de l’orge.
-Production
-Auchentoshan 10 ans 40 %  (fruité et floral)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Auchentoshan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auchentoshan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les whiskies</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auchentoshan 10 ans 40 %  (fruité et floral)
 Auchentoshan 10 ans Three wood 43 %
 Auchentoshan 12 ans
 Auchentoshan Classic
